--- a/Breast_Cancer_Wisconsin/outputs/train_90_test_10/bcw_train_90_test_10_depth_accuracy.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_90_test_10/bcw_train_90_test_10_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
   </sheetData>

--- a/Breast_Cancer_Wisconsin/outputs/train_90_test_10/bcw_train_90_test_10_depth_accuracy.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_90_test_10/bcw_train_90_test_10_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9473684210526315</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8947368421052632</v>
+        <v>89.47</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9473684210526315</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9473684210526315</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9298245614035088</v>
+        <v>92.98</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9298245614035088</v>
+        <v>92.98</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9473684210526315</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
   </sheetData>
